--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -50,6 +50,39 @@
     <t xml:space="preserve">纬度</t>
   </si>
   <si>
+    <t xml:space="preserve">华阳美宜多店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省成都市武侯区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华阳美宜多多，本店销售各类高、中、低档卷烟，品牌齐全，价格合理，服务周到，还有不定期各类活动优惠多多，欢迎前来购买</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朝夕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 18:48:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.06605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.554916</t>
+  </si>
+  <si>
     <t xml:space="preserve">华阳店</t>
   </si>
   <si>
@@ -68,40 +101,100 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">13880954084</t>
-  </si>
-  <si>
     <t xml:space="preserve">待审核</t>
   </si>
   <si>
     <t xml:space="preserve">2018/5/14 0:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">华阳美宜多店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川省成都市武侯区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华阳美宜多多，本店销售各类高、中、低档卷烟，品牌齐全，价格合理，服务周到，还有不定期各类活动优惠多多，欢迎前来购买</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朝夕</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/11 14:46:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.06605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.554916</t>
+    <t xml:space="preserve">小王高档烟酒专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小王高档烟酒专卖店有限公司自2003年成立以来，秉承“为客户提供周到、细致、专业的营销服务，积极构建优品生活新型零售终端”的公司使命，始终致力于“一流的专业品牌推广和营销服务公司”为己任。主要从事营销咨询、品牌宣传、销售和服务支持以及新型混合零售终端业态建设。多年来，业绩瞩目，成果骄人，在业界颇具声誉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161222015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 16:21:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址地址 详细地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好的店铺就这这家店铺了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已拒绝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:04:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漪澜盛水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周瑜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028-5369633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:03:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺测试描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甄家峪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:02:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟草店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 18:16:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.397428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.90923</t>
   </si>
 </sst>
 </file>
@@ -227,43 +320,217 @@
         <v>20</v>
       </c>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">店铺浏览量</t>
   </si>
   <si>
+    <t xml:space="preserve">店铺用户量</t>
+  </si>
+  <si>
     <t xml:space="preserve">店铺电话</t>
   </si>
   <si>
@@ -65,7 +68,10 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">84</t>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">13880954084</t>
@@ -98,7 +104,7 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">待审核</t>
@@ -107,46 +113,37 @@
     <t xml:space="preserve">2018/5/14 0:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">我的店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址地址 详细地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好的店铺就这这家店铺了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已拒绝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:04:35</t>
+  </si>
+  <si>
     <t xml:space="preserve">小王高档烟酒专卖店</t>
   </si>
   <si>
     <t xml:space="preserve">小王高档烟酒专卖店有限公司自2003年成立以来，秉承“为客户提供周到、细致、专业的营销服务，积极构建优品生活新型零售终端”的公司使命，始终致力于“一流的专业品牌推广和营销服务公司”为己任。主要从事营销咨询、品牌宣传、销售和服务支持以及新型混合零售终端业态建设。多年来，业绩瞩目，成果骄人，在业界颇具声誉。</t>
   </si>
   <si>
-    <t xml:space="preserve">张周</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">杨帆</t>
   </si>
   <si>
     <t xml:space="preserve">18161222015</t>
   </si>
   <si>
     <t xml:space="preserve">2018/6/12 16:21:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我的店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址地址 详细地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好的店铺就这这家店铺了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炸鱼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已拒绝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/11 16:04:35</t>
   </si>
   <si>
     <t xml:space="preserve">漪澜盛水</t>
@@ -290,117 +287,121 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
         <v>21</v>
       </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G3"/>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3"/>
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G4"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -409,128 +410,136 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6"/>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
+      <c r="K7"/>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8"/>
+      <c r="L8" t="s">
         <v>58</v>
       </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>59</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -53,12 +53,96 @@
     <t xml:space="preserve">纬度</t>
   </si>
   <si>
+    <t xml:space="preserve">测试店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省广安市前锋区滨河东路顺發批发超市	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺测试描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甄家峪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:02:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漪澜盛水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省成都市武侯区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周瑜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028-5369633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:03:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.06605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.554916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小王高档烟酒专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小王高档烟酒专卖店有限公司自2003年成立以来，秉承“为客户提供周到、细致、专业的营销服务，积极构建优品生活新型零售终端”的公司使命，始终致力于“一流的专业品牌推广和营销服务公司”为己任。主要从事营销咨询、品牌宣传、销售和服务支持以及新型混合零售终端业态建设。多年来，业绩瞩目，成果骄人，在业界颇具声誉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161222015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 16:21:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址地址 详细地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好的店铺就这这家店铺了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已拒绝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:04:35</t>
+  </si>
+  <si>
     <t xml:space="preserve">华阳美宜多店</t>
   </si>
   <si>
-    <t xml:space="preserve">四川省成都市武侯区</t>
-  </si>
-  <si>
     <t xml:space="preserve">华阳美宜多多，本店销售各类高、中、低档卷烟，品牌齐全，价格合理，服务周到，还有不定期各类活动优惠多多，欢迎前来购买</t>
   </si>
   <si>
@@ -68,27 +152,12 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">13880954084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已审核</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018/6/12 18:48:27</t>
   </si>
   <si>
-    <t xml:space="preserve">104.06605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.554916</t>
-  </si>
-  <si>
     <t xml:space="preserve">华阳店</t>
   </si>
   <si>
@@ -101,76 +170,10 @@
     <t xml:space="preserve">赵曦</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">待审核</t>
   </si>
   <si>
     <t xml:space="preserve">2018/5/14 0:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我的店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址地址 详细地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好的店铺就这这家店铺了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炸鱼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已拒绝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/11 16:04:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小王高档烟酒专卖店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小王高档烟酒专卖店有限公司自2003年成立以来，秉承“为客户提供周到、细致、专业的营销服务，积极构建优品生活新型零售终端”的公司使命，始终致力于“一流的专业品牌推广和营销服务公司”为己任。主要从事营销咨询、品牌宣传、销售和服务支持以及新型混合零售终端业态建设。多年来，业绩瞩目，成果骄人，在业界颇具声誉。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨帆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18161222015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/12 16:21:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漪澜盛水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周瑜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028-5369633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/11 16:03:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺测试描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甄家峪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/11 16:02:53</t>
   </si>
   <si>
     <t xml:space="preserve">广安店</t>
@@ -308,164 +311,170 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
       <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5"/>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
+      <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6"/>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -482,64 +491,60 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7"/>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
+      <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">零售客户</t>
   </si>
   <si>
+    <t xml:space="preserve">客户编码</t>
+  </si>
+  <si>
     <t xml:space="preserve">店铺销量</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t xml:space="preserve">甄家峪</t>
   </si>
   <si>
+    <t xml:space="preserve">000596235432</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
     <t xml:space="preserve">周瑜</t>
   </si>
   <si>
+    <t xml:space="preserve">00065989846</t>
+  </si>
+  <si>
     <t xml:space="preserve">028-5369633</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
     <t xml:space="preserve">杨帆</t>
   </si>
   <si>
+    <t xml:space="preserve">0001456454566</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t xml:space="preserve">炸鱼</t>
   </si>
   <si>
+    <t xml:space="preserve">00098654665</t>
+  </si>
+  <si>
     <t xml:space="preserve">已拒绝</t>
   </si>
   <si>
@@ -149,6 +164,9 @@
     <t xml:space="preserve">朝夕</t>
   </si>
   <si>
+    <t xml:space="preserve">0005646653265</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -170,6 +188,9 @@
     <t xml:space="preserve">赵曦</t>
   </si>
   <si>
+    <t xml:space="preserve">000123596326</t>
+  </si>
+  <si>
     <t xml:space="preserve">待审核</t>
   </si>
   <si>
@@ -186,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">依米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0002698456523</t>
   </si>
   <si>
     <t xml:space="preserve">2018/6/1 18:16:54</t>
@@ -293,258 +317,282 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2"/>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3"/>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3"/>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="N4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5"/>
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7"/>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7"/>
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
       <c r="L7"/>
       <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8"/>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8"/>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">已审核</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/11 16:02:53</t>
+    <t xml:space="preserve">6/28/2018 5:33:37 PM</t>
   </si>
   <si>
     <t xml:space="preserve">漪澜盛水</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">028-5369633</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/11 16:03:36</t>
+    <t xml:space="preserve">6/11/2018 4:03:36 PM</t>
   </si>
   <si>
     <t xml:space="preserve">104.06605</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">18161222015</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/12 16:21:11</t>
+    <t xml:space="preserve">6/12/2018 4:21:11 PM</t>
   </si>
   <si>
     <t xml:space="preserve">我的店铺</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">已拒绝</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/11 16:04:35</t>
+    <t xml:space="preserve">6/28/2018 5:34:42 PM</t>
   </si>
   <si>
     <t xml:space="preserve">华阳美宜多店</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/12 18:48:27</t>
+    <t xml:space="preserve">6/12/2018 6:48:27 PM</t>
   </si>
   <si>
     <t xml:space="preserve">华阳店</t>
@@ -191,10 +191,7 @@
     <t xml:space="preserve">000123596326</t>
   </si>
   <si>
-    <t xml:space="preserve">待审核</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/14 0:00:00</t>
+    <t xml:space="preserve">6/25/2018 6:18:53 PM</t>
   </si>
   <si>
     <t xml:space="preserve">广安店</t>
@@ -212,7 +209,7 @@
     <t xml:space="preserve">0002698456523</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/1 18:16:54</t>
+    <t xml:space="preserve">6/28/2018 4:36:52 PM</t>
   </si>
   <si>
     <t xml:space="preserve">116.397428</t>
@@ -546,10 +543,10 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -557,19 +554,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -585,14 +582,14 @@
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
         <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">已审核</t>
   </si>
   <si>
-    <t xml:space="preserve">6/28/2018 5:33:37 PM</t>
+    <t xml:space="preserve">2018/6/28 17:33:37</t>
   </si>
   <si>
     <t xml:space="preserve">漪澜盛水</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">028-5369633</t>
   </si>
   <si>
-    <t xml:space="preserve">6/11/2018 4:03:36 PM</t>
+    <t xml:space="preserve">2018/6/11 16:03:36</t>
   </si>
   <si>
     <t xml:space="preserve">104.06605</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">18161222015</t>
   </si>
   <si>
-    <t xml:space="preserve">6/12/2018 4:21:11 PM</t>
+    <t xml:space="preserve">2018/6/12 16:21:11</t>
   </si>
   <si>
     <t xml:space="preserve">我的店铺</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">已拒绝</t>
   </si>
   <si>
-    <t xml:space="preserve">6/28/2018 5:34:42 PM</t>
+    <t xml:space="preserve">2018/6/28 17:34:42</t>
   </si>
   <si>
     <t xml:space="preserve">华阳美宜多店</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">6/12/2018 6:48:27 PM</t>
+    <t xml:space="preserve">2018/6/12 18:48:27</t>
   </si>
   <si>
     <t xml:space="preserve">华阳店</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">000123596326</t>
   </si>
   <si>
-    <t xml:space="preserve">6/25/2018 6:18:53 PM</t>
+    <t xml:space="preserve">2018/6/25 18:18:53</t>
   </si>
   <si>
     <t xml:space="preserve">广安店</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">0002698456523</t>
   </si>
   <si>
-    <t xml:space="preserve">6/28/2018 4:36:52 PM</t>
+    <t xml:space="preserve">2018/6/28 16:36:52</t>
   </si>
   <si>
     <t xml:space="preserve">116.397428</t>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -29,6 +29,12 @@
     <t xml:space="preserve">客户编码</t>
   </si>
   <si>
+    <t xml:space="preserve">客户经理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位</t>
+  </si>
+  <si>
     <t xml:space="preserve">店铺销量</t>
   </si>
   <si>
@@ -59,12 +65,120 @@
     <t xml:space="preserve">纬度</t>
   </si>
   <si>
+    <t xml:space="preserve">片区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省广安市前锋区滨河东路顺發批发超市	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺测试描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甄家峪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000596235432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金牛区烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/28 17:33:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漪澜盛水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省成都市武侯区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周瑜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00065989846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028-5369633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/11 16:03:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.06605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.554916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小王高档烟酒专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小王高档烟酒专卖店有限公司自2003年成立以来，秉承“为客户提供周到、细致、专业的营销服务，积极构建优品生活新型零售终端”的公司使命，始终致力于“一流的专业品牌推广和营销服务公司”为己任。主要从事营销咨询、品牌宣传、销售和服务支持以及新型混合零售终端业态建设。多年来，业绩瞩目，成果骄人，在业界颇具声誉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001456454566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高新区烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161222015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 16:21:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址地址 详细地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好的店铺就这这家店铺了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00098654665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑楚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/7/4 17:31:41</t>
+  </si>
+  <si>
     <t xml:space="preserve">华阳美宜多店</t>
   </si>
   <si>
-    <t xml:space="preserve">四川省成都市武侯区</t>
-  </si>
-  <si>
     <t xml:space="preserve">华阳美宜多多，本店销售各类高、中、低档卷烟，品牌齐全，价格合理，服务周到，还有不定期各类活动优惠多多，欢迎前来购买</t>
   </si>
   <si>
@@ -74,73 +188,37 @@
     <t xml:space="preserve">0005646653265</t>
   </si>
   <si>
+    <t xml:space="preserve">曹禺</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13880954084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已审核</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018/6/12 18:48:27</t>
   </si>
   <si>
-    <t xml:space="preserve">104.06605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.554916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小王高档烟酒专卖店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小王高档烟酒专卖店有限公司自2003年成立以来，秉承“为客户提供周到、细致、专业的营销服务，积极构建优品生活新型零售终端”的公司使命，始终致力于“一流的专业品牌推广和营销服务公司”为己任。主要从事营销咨询、品牌宣传、销售和服务支持以及新型混合零售终端业态建设。多年来，业绩瞩目，成果骄人，在业界颇具声誉。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨帆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001456454566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18161222015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/12 16:21:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川省广安市前锋区滨河东路顺發批发超市	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺测试描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甄家峪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000596235432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/28 17:33:37</t>
+    <t xml:space="preserve">华阳店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华阳金棕榈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华阳金棕榈店修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵曦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000123596326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青羊区烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/25 18:18:53</t>
   </si>
   <si>
     <t xml:space="preserve">广安店</t>
@@ -165,60 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">39.90923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华阳店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华阳金棕榈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华阳金棕榈店修改</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵曦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000123596326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/25 18:18:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我的店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址地址 详细地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好的店铺就这这家店铺了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炸鱼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00098654665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已拒绝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/28 17:34:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漪澜盛水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周瑜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00065989846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028-5369633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/11 16:03:36</t>
   </si>
 </sst>
 </file>
@@ -323,103 +347,114 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J2"/>
       <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2"/>
       <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
+      <c r="O2"/>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3"/>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="O3"/>
+      <c r="P3" t="s">
         <v>36</v>
       </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -430,194 +465,225 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F4"/>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4"/>
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4"/>
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
       <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5"/>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6"/>
+        <v>58</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
       <c r="O6"/>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
       <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7"/>
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
       <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8"/>
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8"/>
+        <v>73</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J8"/>
       <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8"/>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
